--- a/REGULAR/CASUAL-REGULAR FINAL/GUTIERREZ, MARLYN.xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/GUTIERREZ, MARLYN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CASUAL-REGULAR FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -196,6 +196,21 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>11/9,15,16 , 12/6,13/2023</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>11/13,13 , 12/20/2023</t>
   </si>
 </sst>
 </file>
@@ -574,6 +589,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -609,9 +627,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2837,7 +2852,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K115" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K117" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
@@ -3245,12 +3260,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K115"/>
+  <dimension ref="A2:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A52" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A55" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <selection pane="bottomLeft" activeCell="K68" sqref="K68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,60 +3287,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3351,18 +3366,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3409,7 +3424,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>36.75</v>
+        <v>43</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3419,7 +3434,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>52.75</v>
+        <v>64</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3748,7 +3763,7 @@
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="61">
+      <c r="K25" s="49">
         <v>44069</v>
       </c>
     </row>
@@ -4399,15 +4414,19 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+      <c r="A58" s="40">
+        <v>44958</v>
+      </c>
       <c r="B58" s="20"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
@@ -4415,15 +4434,19 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
+      <c r="A59" s="40">
+        <v>44986</v>
+      </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
@@ -4431,15 +4454,19 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
+      <c r="A60" s="40">
+        <v>45017</v>
+      </c>
       <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
@@ -4447,15 +4474,19 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
+      <c r="A61" s="40">
+        <v>45047</v>
+      </c>
       <c r="B61" s="20"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D61" s="39"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
@@ -4463,15 +4494,19 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>45078</v>
+      </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -4479,15 +4514,19 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>45108</v>
+      </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4495,15 +4534,19 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>45139</v>
+      </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4511,15 +4554,19 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>45170</v>
+      </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
@@ -4527,15 +4574,19 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>45200</v>
+      </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
@@ -4543,10 +4594,16 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="20"/>
+      <c r="A67" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C67" s="13"/>
-      <c r="D67" s="39"/>
+      <c r="D67" s="39">
+        <v>5</v>
+      </c>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13" t="str">
@@ -4556,11 +4613,15 @@
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="20"/>
+      <c r="K67" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
-      <c r="B68" s="20"/>
+      <c r="B68" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C68" s="13"/>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
@@ -4572,10 +4633,14 @@
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="20"/>
+      <c r="K68" s="20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
+      <c r="A69" s="40">
+        <v>45261</v>
+      </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
       <c r="D69" s="39"/>
@@ -4591,7 +4656,9 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
+      <c r="A70" s="48" t="s">
+        <v>53</v>
+      </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
       <c r="D70" s="39"/>
@@ -4607,7 +4674,9 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>45292</v>
+      </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
       <c r="D71" s="39"/>
@@ -4623,7 +4692,9 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
+      <c r="A72" s="40">
+        <v>45323</v>
+      </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
       <c r="D72" s="39"/>
@@ -5311,20 +5382,52 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="41"/>
-      <c r="B115" s="15"/>
-      <c r="C115" s="42"/>
-      <c r="D115" s="43"/>
+      <c r="A115" s="40"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="39"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="43"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="39"/>
       <c r="I115" s="9"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="15"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="40"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="39"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="41"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="43"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5398,71 +5501,71 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>GUTIERREZ, MARLYN</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="str">
+      <c r="B3" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53" t="str">
+      <c r="F3" s="54" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="str">
+      <c r="B4" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5488,18 +5591,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -7565,17 +7668,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -7650,12 +7753,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
